--- a/BackTest/2020-01-26 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-26 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,7 +1243,7 @@
         <v>-8587092.721459581</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8589628.135459581</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8532995.437695442</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8496356.203895442</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-8496356.203895442</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9030928.440495444</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9027812.683495445</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9034173.682495445</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9029722.025495445</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9023677.508495444</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-9031288.021495445</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9030535.563495444</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9027152.419495445</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9032519.200495444</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9056823.269095445</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9056040.630095445</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9054150.079095444</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9051616.699095443</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9051495.799095443</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9051867.558095442</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9049566.895095441</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9053679.027095441</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9052452.044095442</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-9053842.253995441</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-9051117.22799544</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-9046796.30699544</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-9046314.92899544</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-9054263.46599544</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-9063455.789995439</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-9064196.93999544</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-9062333.490995441</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-9058682.483995441</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-9057972.592995441</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-9059721.835995441</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9057015.681295441</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-9057178.007295441</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-9057178.007295441</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-9057178.007295441</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-9057178.007295441</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9065432.216295442</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9054754.827295441</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-9054874.798295442</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9056565.456495441</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9059350.47049544</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9055749.784495439</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-9053107.92549544</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9057171.04049544</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9062094.169495441</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9063214.037495442</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-9060955.504495442</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-9057289.752495442</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-9056120.463495441</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-9053969.168495441</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-9057434.920495441</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-9058200.250495441</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-9056774.16549544</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-9059611.147495441</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-9060090.618495442</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-9058768.953495443</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-9056387.027495442</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-9057412.128095442</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-9057855.487095442</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9059226.491095442</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-9056791.649095442</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-9422888.064395443</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-9425100.645395443</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-9431588.436395442</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-9434701.840395441</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-9440669.251395442</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-9440669.251395442</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-9441915.525395442</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-9444066.384395441</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-9447120.904395441</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-9446895.96939544</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-9444294.46639544</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-9437826.67139544</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-9449229.54729544</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-9452261.813295441</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-9446570.72829544</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-9791765.73459544</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-9791644.83459544</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-9792804.43759544</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-9795462.637595439</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-9795462.637595439</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-9795462.637595439</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-9797381.839595439</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-9797261.839795439</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-9800183.75479544</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-9801601.476795439</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-9804710.587795438</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-9804832.334795438</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-9803175.978995437</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-9254868.300927786</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-9256931.461927786</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-9252855.096927786</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-9254279.816927787</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-9256602.535927787</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-9257346.825927787</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-9258742.987927785</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-9274644.006927785</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-9256433.824927785</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-9369025.745227784</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-9120484.706927784</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-9121480.749927783</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-9119999.927927783</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-9123452.088927783</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-9094856.914527783</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-9096870.761527782</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-9181043.039627783</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-9177936.053627782</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-9346584.737227783</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-9345253.316227783</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-9405202.929427782</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-9389691.291427782</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-9372451.161427781</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-9229883.498027779</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-9226834.53602778</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-9697955.719327781</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-9719012.94802778</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-9703346.93302778</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-9685910.166027779</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-9688842.455027778</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-9689091.342527779</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-9691944.615527779</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9702531.431427779</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-9660288.58542778</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-9644232.72442778</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-9637550.610627782</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-9904817.119227778</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-9825660.437627776</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-26117478.31381513</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-27719718.58151514</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-27718719.56451514</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-27758106.57651513</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-27758106.57651513</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-28285952.64541513</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-28995422.96181514</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-28763270.26191514</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-28790195.85391514</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-28714998.54891514</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-28636458.02791514</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-28636458.02791514</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-28656138.78491514</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-28636960.50891514</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-28579628.27891514</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-28665493.05091514</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-28289839.60631514</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-28491612.30801513</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30481,10 +30481,14 @@
         <v>-30984289.01361514</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="J912" t="n">
+        <v>4.066</v>
+      </c>
       <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
@@ -30514,11 +30518,19 @@
         <v>-30894574.91541514</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="J913" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30547,15 +30559,19 @@
         <v>-30825722.05641514</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>4.067</v>
       </c>
       <c r="J914" t="n">
-        <v>4.067</v>
-      </c>
-      <c r="K914" t="inlineStr"/>
+        <v>4.066</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,15 +30600,17 @@
         <v>-30732148.75711514</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>4.069</v>
+      </c>
       <c r="J915" t="n">
-        <v>4.067</v>
+        <v>4.066</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L915" t="n">
@@ -30623,17 +30641,17 @@
         <v>-30727919.25611514</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>4.073</v>
       </c>
       <c r="J916" t="n">
-        <v>4.067</v>
+        <v>4.066</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L916" t="n">
@@ -30664,15 +30682,19 @@
         <v>-30709677.08711514</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>4.076</v>
       </c>
       <c r="J917" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="K917" t="inlineStr"/>
+        <v>4.066</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30701,17 +30723,17 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>4.085</v>
       </c>
       <c r="J918" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L918" t="n">
@@ -30742,17 +30764,17 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>4.089</v>
       </c>
       <c r="J919" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L919" t="n">
@@ -30783,17 +30805,17 @@
         <v>-30622616.14711514</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I920" t="n">
         <v>4.089</v>
       </c>
       <c r="J920" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L920" t="n">
@@ -30824,13 +30846,13 @@
         <v>-30631536.79611515</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>4.09</v>
       </c>
       <c r="J921" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -30865,13 +30887,13 @@
         <v>-30621351.06311515</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I922" t="n">
         <v>4.087</v>
       </c>
       <c r="J922" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -30906,13 +30928,13 @@
         <v>-30587999.69841515</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I923" t="n">
         <v>4.092</v>
       </c>
       <c r="J923" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -30947,11 +30969,13 @@
         <v>-30670509.52941515</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>4.098</v>
+      </c>
       <c r="J924" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -30986,11 +31010,13 @@
         <v>-30626370.78441514</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>4.097</v>
+      </c>
       <c r="J925" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -31025,11 +31051,13 @@
         <v>-30626370.78441514</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4.099</v>
+      </c>
       <c r="J926" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -31064,11 +31092,13 @@
         <v>-30330542.40281514</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>4.099</v>
+      </c>
       <c r="J927" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -31107,7 +31137,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -31146,7 +31176,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -31185,7 +31215,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -31224,7 +31254,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -31263,7 +31293,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -31302,7 +31332,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -31341,7 +31371,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -31380,7 +31410,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -31419,7 +31449,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -31458,7 +31488,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -31497,7 +31527,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -31536,7 +31566,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -31575,7 +31605,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31614,7 +31644,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31653,7 +31683,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -31692,7 +31722,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -31731,7 +31761,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -31770,7 +31800,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -31809,7 +31839,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -31848,7 +31878,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -31887,7 +31917,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -31926,7 +31956,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -31965,7 +31995,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32004,7 +32034,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32043,7 +32073,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32082,7 +32112,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32121,7 +32151,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32160,7 +32190,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32199,7 +32229,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32238,7 +32268,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32277,7 +32307,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32316,7 +32346,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32351,11 +32381,13 @@
         <v>-30598487.02601515</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>4.108</v>
+      </c>
       <c r="J960" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32390,11 +32422,13 @@
         <v>-30598487.02601515</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>4.107</v>
+      </c>
       <c r="J961" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32429,11 +32463,13 @@
         <v>-30571511.43651515</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>4.107</v>
+      </c>
       <c r="J962" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32468,11 +32504,13 @@
         <v>-30547854.00351515</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>4.121</v>
+      </c>
       <c r="J963" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32507,11 +32545,13 @@
         <v>-30637901.83721515</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J964" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -32550,7 +32590,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -32585,11 +32625,13 @@
         <v>-30644731.79291515</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>4.121</v>
+      </c>
       <c r="J966" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -32624,11 +32666,13 @@
         <v>-30617776.20791515</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>4.1</v>
+      </c>
       <c r="J967" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -32663,11 +32707,13 @@
         <v>-30574724.90991515</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J968" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -32702,11 +32748,13 @@
         <v>-30549082.18691515</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>4.102</v>
+      </c>
       <c r="J969" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -32741,11 +32789,13 @@
         <v>-30673372.11391515</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>4.103</v>
+      </c>
       <c r="J970" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -32780,11 +32830,13 @@
         <v>-30673372.11391515</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J971" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -32819,11 +32871,13 @@
         <v>-30662254.41891515</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J972" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -32858,11 +32912,13 @@
         <v>-30629834.17291515</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>4.102</v>
+      </c>
       <c r="J973" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -32901,7 +32957,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -32936,11 +32992,13 @@
         <v>-30656122.94291515</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>4.103</v>
+      </c>
       <c r="J975" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -32975,11 +33033,13 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>4.104</v>
+      </c>
       <c r="J976" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -33014,11 +33074,13 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>4.102</v>
+      </c>
       <c r="J977" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -33057,7 +33119,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -33092,11 +33154,13 @@
         <v>-30430316.99161515</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>4.102</v>
+      </c>
       <c r="J979" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -33135,7 +33199,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -33174,7 +33238,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -33213,7 +33277,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -33252,7 +33316,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -33291,7 +33355,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -33330,7 +33394,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -33369,7 +33433,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -33408,7 +33472,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -33447,7 +33511,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -33486,7 +33550,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -33525,7 +33589,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -33564,7 +33628,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -33603,7 +33667,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -33642,7 +33706,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -33681,7 +33745,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -33720,7 +33784,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -33759,7 +33823,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -33798,7 +33862,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -33837,7 +33901,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -33876,7 +33940,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -33915,7 +33979,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -33954,7 +34018,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -33993,7 +34057,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34032,7 +34096,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34071,7 +34135,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34110,7 +34174,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34145,11 +34209,13 @@
         <v>-31085754.88371513</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>4.112</v>
+      </c>
       <c r="J1006" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34184,11 +34250,13 @@
         <v>-31077353.26971513</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>4.112</v>
+      </c>
       <c r="J1007" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34227,7 +34295,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1008" t="inlineStr">
         <is>
@@ -34266,7 +34334,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1009" t="inlineStr">
         <is>
@@ -34305,7 +34373,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1010" t="inlineStr">
         <is>
@@ -34344,7 +34412,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1011" t="inlineStr">
         <is>
@@ -34383,7 +34451,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34422,7 +34490,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34461,7 +34529,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34500,7 +34568,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34539,7 +34607,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34578,7 +34646,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34617,7 +34685,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34656,7 +34724,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34691,11 +34759,13 @@
         <v>-31068843.08411513</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>4.106</v>
+      </c>
       <c r="J1020" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34730,11 +34800,13 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J1021" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
@@ -34769,11 +34841,13 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>4.13</v>
+      </c>
       <c r="J1022" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
@@ -34812,7 +34886,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1023" t="inlineStr">
         <is>
@@ -34851,7 +34925,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1024" t="inlineStr">
         <is>
@@ -34890,7 +34964,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1025" t="inlineStr">
         <is>
@@ -34925,11 +34999,13 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>4.109</v>
+      </c>
       <c r="J1026" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1026" t="inlineStr">
         <is>
@@ -34964,11 +35040,13 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>4.109</v>
+      </c>
       <c r="J1027" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1027" t="inlineStr">
         <is>
@@ -35003,11 +35081,13 @@
         <v>-31163581.95691513</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>4.109</v>
+      </c>
       <c r="J1028" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35042,11 +35122,13 @@
         <v>-31241168.04091513</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>4.108</v>
+      </c>
       <c r="J1029" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1029" t="inlineStr">
         <is>
@@ -35081,11 +35163,13 @@
         <v>-31194382.33291513</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>4.106</v>
+      </c>
       <c r="J1030" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35124,7 +35208,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35159,11 +35243,13 @@
         <v>-31846906.68151513</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>4.109</v>
+      </c>
       <c r="J1032" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35202,7 +35288,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35241,7 +35327,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35280,7 +35366,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35319,7 +35405,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35358,7 +35444,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35397,7 +35483,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35436,7 +35522,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35471,11 +35557,13 @@
         <v>-31800469.57051513</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J1040" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35510,11 +35598,13 @@
         <v>-31798825.75951513</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J1041" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35549,11 +35639,13 @@
         <v>-31810810.15651513</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>4.103</v>
+      </c>
       <c r="J1042" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35588,11 +35680,13 @@
         <v>-31810810.15651513</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J1043" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35627,11 +35721,13 @@
         <v>-31810810.15651513</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J1044" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35666,11 +35762,13 @@
         <v>-31753728.93351513</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J1045" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1045" t="inlineStr">
         <is>
@@ -35709,7 +35807,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1046" t="inlineStr">
         <is>
@@ -35748,7 +35846,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35787,7 +35885,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35826,7 +35924,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1049" t="inlineStr">
         <is>
@@ -35865,7 +35963,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35904,7 +36002,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35943,7 +36041,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35982,7 +36080,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
@@ -36021,7 +36119,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1054" t="inlineStr">
         <is>
@@ -36060,7 +36158,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1055" t="inlineStr">
         <is>
@@ -36099,7 +36197,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1056" t="inlineStr">
         <is>
@@ -36138,7 +36236,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
@@ -36177,7 +36275,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
@@ -36216,7 +36314,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
@@ -36255,7 +36353,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36294,7 +36392,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1061" t="inlineStr">
         <is>
@@ -36333,7 +36431,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
@@ -36372,7 +36470,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
@@ -36411,7 +36509,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
@@ -36450,7 +36548,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
@@ -36489,7 +36587,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -36528,7 +36626,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -36567,7 +36665,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
@@ -36606,7 +36704,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -36645,7 +36743,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -36684,7 +36782,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -36723,7 +36821,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -36762,7 +36860,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36801,7 +36899,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -36840,7 +36938,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36879,7 +36977,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36918,7 +37016,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36957,7 +37055,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36996,7 +37094,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1079" t="inlineStr">
         <is>
@@ -37035,7 +37133,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
@@ -37074,7 +37172,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
@@ -37113,7 +37211,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
@@ -37152,7 +37250,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
@@ -37191,7 +37289,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1084" t="inlineStr">
         <is>
@@ -37230,7 +37328,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1085" t="inlineStr">
         <is>
@@ -37269,7 +37367,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1086" t="inlineStr">
         <is>
@@ -37304,11 +37402,13 @@
         <v>-31917699.78971513</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>4.123</v>
+      </c>
       <c r="J1087" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1087" t="inlineStr">
         <is>
@@ -37343,11 +37443,13 @@
         <v>-31746837.79271513</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J1088" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1088" t="inlineStr">
         <is>
@@ -37386,7 +37488,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
@@ -37421,11 +37523,13 @@
         <v>-31863208.10831513</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J1090" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
@@ -37464,7 +37568,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
@@ -37499,11 +37603,13 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>4.123</v>
+      </c>
       <c r="J1092" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -37538,11 +37644,13 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>4.124</v>
+      </c>
       <c r="J1093" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -37577,11 +37685,13 @@
         <v>-31901176.96151513</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>4.124</v>
+      </c>
       <c r="J1094" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -37620,7 +37730,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -37659,7 +37769,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -37698,7 +37808,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -37737,7 +37847,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -37776,7 +37886,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -37815,7 +37925,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37854,7 +37964,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -37893,7 +38003,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -37932,7 +38042,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -37971,7 +38081,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -38010,7 +38120,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -38049,7 +38159,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -38088,7 +38198,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -38127,7 +38237,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -38166,7 +38276,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -38205,7 +38315,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -38244,7 +38354,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -38283,7 +38393,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -38322,7 +38432,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -38361,7 +38471,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -38400,7 +38510,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -38439,7 +38549,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -38478,7 +38588,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -38517,7 +38627,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -38556,7 +38666,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -38595,7 +38705,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -38634,7 +38744,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -38673,7 +38783,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -38712,7 +38822,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -38751,7 +38861,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -38790,7 +38900,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -38829,7 +38939,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -38868,7 +38978,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -38907,7 +39017,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38946,7 +39056,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38985,7 +39095,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -39024,7 +39134,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -39063,7 +39173,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -39102,7 +39212,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -39141,7 +39251,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -39180,7 +39290,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -39219,7 +39329,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -39254,11 +39364,13 @@
         <v>-33361580.87925032</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>4.104</v>
+      </c>
       <c r="J1137" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -39293,11 +39405,13 @@
         <v>-33361580.87925032</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J1138" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -39332,11 +39446,13 @@
         <v>-33307722.25025032</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J1139" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -39371,11 +39487,13 @@
         <v>-33440118.26325032</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>4.106</v>
+      </c>
       <c r="J1140" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -39410,11 +39528,13 @@
         <v>-33440118.26325032</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>4.104</v>
+      </c>
       <c r="J1141" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -39449,11 +39569,13 @@
         <v>-33455280.38425032</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>4.104</v>
+      </c>
       <c r="J1142" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -39488,11 +39610,13 @@
         <v>-33455280.38425032</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>4.103</v>
+      </c>
       <c r="J1143" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -39527,11 +39651,13 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>4.103</v>
+      </c>
       <c r="J1144" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -39566,11 +39692,13 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J1145" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -39605,11 +39733,13 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J1146" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -39644,11 +39774,13 @@
         <v>-33553590.81005032</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J1147" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -39687,7 +39819,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -39722,11 +39854,13 @@
         <v>-33418418.51005032</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>4.104</v>
+      </c>
       <c r="J1149" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -39761,11 +39895,13 @@
         <v>-33531349.04005032</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>4.106</v>
+      </c>
       <c r="J1150" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -39804,7 +39940,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -39839,11 +39975,13 @@
         <v>-33472903.27105032</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>4.104</v>
+      </c>
       <c r="J1152" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -39878,11 +40016,13 @@
         <v>-33472903.27105032</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>4.106</v>
+      </c>
       <c r="J1153" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -39917,11 +40057,13 @@
         <v>-33520497.38205032</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>4.106</v>
+      </c>
       <c r="J1154" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -39960,7 +40102,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -39999,7 +40141,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -40034,11 +40176,13 @@
         <v>-33410349.76005032</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>4.107</v>
+      </c>
       <c r="J1157" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -40073,11 +40217,13 @@
         <v>-33428741.57805032</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>4.108</v>
+      </c>
       <c r="J1158" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -40116,7 +40262,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -40151,11 +40297,13 @@
         <v>-33449251.41205031</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>4.107</v>
+      </c>
       <c r="J1160" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -40190,11 +40338,13 @@
         <v>-33453623.35705031</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>4.106</v>
+      </c>
       <c r="J1161" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -40233,7 +40383,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -40272,7 +40422,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -40311,7 +40461,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -40350,7 +40500,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -40389,7 +40539,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -40428,7 +40578,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -40467,7 +40617,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -40506,7 +40656,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -40545,7 +40695,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -40584,7 +40734,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -40623,7 +40773,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -40662,7 +40812,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -40701,7 +40851,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -40740,7 +40890,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -40779,7 +40929,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -40818,7 +40968,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -40857,7 +41007,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -40896,7 +41046,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -40935,7 +41085,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -40974,7 +41124,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="n">
-        <v>4.076</v>
+        <v>4.066</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40987,6 +41137,6 @@
       <c r="M1181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-26 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>-8866276.4066</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8863598.876600001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8858430.797600001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8853251.262600001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8843741.8859</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8843861.8859</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8587092.721459581</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-8587092.721459581</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9030928.440495444</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9027812.683495445</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9034173.682495445</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9029722.025495445</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9023677.508495444</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-9031288.021495445</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9030535.563495444</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9027152.419495445</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9032519.200495444</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9056823.269095445</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9056040.630095445</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9054150.079095444</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9051616.699095443</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9051495.799095443</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9051867.558095442</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9049566.895095441</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9053679.027095441</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9052452.044095442</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-9046314.92899544</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-9054263.46599544</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-9063455.789995439</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-9064196.93999544</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-9062333.490995441</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-9058682.483995441</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-9057972.592995441</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-9059721.835995441</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9057015.681295441</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-9057178.007295441</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-9057178.007295441</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9065432.216295442</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9054754.827295441</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-9054874.798295442</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9056565.456495441</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9059350.47049544</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9055749.784495439</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-9053107.92549544</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9057171.04049544</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9062094.169495441</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9063214.037495442</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-9060955.504495442</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-9057289.752495442</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-9056120.463495441</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-9053969.168495441</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-9057434.920495441</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-9058200.250495441</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-9056774.16549544</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-9059611.147495441</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-9060090.618495442</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-9058768.953495443</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-9056387.027495442</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-9057412.128095442</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-9057855.487095442</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9059226.491095442</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-9056791.649095442</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-9422888.064395443</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-9425100.645395443</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-9431588.436395442</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-9434701.840395441</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-9440669.251395442</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-9440669.251395442</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-9441915.525395442</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-9444066.384395441</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-9447120.904395441</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-9446895.96939544</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-9444294.46639544</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-9437826.67139544</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-9449229.54729544</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-9446570.72829544</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-9791765.73459544</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-9791644.83459544</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-9792804.43759544</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-9645596.702395435</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-9242445.511627788</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-9242960.193627788</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-9254148.218927786</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-9258742.987927785</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-9259922.736927785</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-9274644.006927785</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-9256735.730927784</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-9256433.824927785</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-9312782.996027784</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-9096870.761527782</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-9101607.033527782</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-9066738.841527782</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-9140212.974527784</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-9135881.119527783</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-9699569.990527779</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-9691944.615527779</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-9682545.88152778</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-9688697.99342778</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9702531.431427779</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-9739504.94362778</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-9779083.02262778</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-15314634.70751513</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-15384852.20151513</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-15379556.10251513</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-15411426.28331513</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-15378541.98211513</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-15411345.50711513</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-15427122.81411513</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-15453603.84611513</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-15418008.58611513</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-15549274.35961513</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-15545221.51361513</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-15555216.19861513</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-15574523.54561513</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-15895736.19861513</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-15093454.54411513</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-15072316.26711513</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-15098552.29911513</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-15094803.80811513</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-15123326.58611513</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-15125328.22011513</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-15114559.75411513</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-15123031.31311513</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-15122500.64811513</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-15133415.94311513</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-15107872.20811513</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-15138729.59611513</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-15105172.70411513</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-15106066.50211513</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-15103426.58211513</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -30481,14 +30481,10 @@
         <v>-30984289.01361514</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="J912" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
@@ -30526,11 +30522,7 @@
       <c r="J913" t="n">
         <v>4.066</v>
       </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30559,11 +30551,9 @@
         <v>-30825722.05641514</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>4.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
         <v>4.066</v>
       </c>
@@ -30600,2573 +30590,2135 @@
         <v>-30732148.75711514</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>4.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
         <v>4.066</v>
       </c>
       <c r="K915" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="C916" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="D916" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="E916" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="F916" t="n">
+        <v>4229.501</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-30727919.25611514</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="C917" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="D917" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="E917" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="F917" t="n">
+        <v>18242.169</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-30709677.08711514</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="n">
+        <v>1</v>
+      </c>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>4.088</v>
+      </c>
+      <c r="C918" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="D918" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="E918" t="n">
+        <v>4.088</v>
+      </c>
+      <c r="F918" t="n">
+        <v>35639.027</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-30674038.06011514</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="n">
+        <v>1</v>
+      </c>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="C919" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="D919" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="E919" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="F919" t="n">
+        <v>21452.338</v>
+      </c>
+      <c r="G919" t="n">
+        <v>-30674038.06011514</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="n">
+        <v>1</v>
+      </c>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="C920" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D920" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E920" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="F920" t="n">
+        <v>51421.913</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-30622616.14711514</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="n">
+        <v>1</v>
+      </c>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="C921" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="D921" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="E921" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="F921" t="n">
+        <v>8920.648999999999</v>
+      </c>
+      <c r="G921" t="n">
+        <v>-30631536.79611515</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="n">
+        <v>1</v>
+      </c>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="C922" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="D922" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="E922" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="F922" t="n">
+        <v>10185.733</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-30621351.06311515</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="n">
+        <v>1</v>
+      </c>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C923" t="n">
+        <v>4.098</v>
+      </c>
+      <c r="D923" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E923" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="F923" t="n">
+        <v>33351.3647</v>
+      </c>
+      <c r="G923" t="n">
+        <v>-30587999.69841515</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="n">
+        <v>1</v>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="C924" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="D924" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="E924" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="F924" t="n">
+        <v>82509.83100000001</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-30670509.52941515</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="n">
+        <v>1</v>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="C925" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="D925" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="E925" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="F925" t="n">
+        <v>44138.745</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-30626370.78441514</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="n">
+        <v>1</v>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="C926" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="D926" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="E926" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="F926" t="n">
+        <v>48820.94</v>
+      </c>
+      <c r="G926" t="n">
+        <v>-30626370.78441514</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="C927" t="n">
+        <v>4.139</v>
+      </c>
+      <c r="D927" t="n">
+        <v>4.139</v>
+      </c>
+      <c r="E927" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="F927" t="n">
+        <v>295828.3816</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-30330542.40281514</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="n">
+        <v>1</v>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>4.139</v>
+      </c>
+      <c r="C928" t="n">
+        <v>4.139</v>
+      </c>
+      <c r="D928" t="n">
+        <v>4.139</v>
+      </c>
+      <c r="E928" t="n">
+        <v>4.139</v>
+      </c>
+      <c r="F928" t="n">
+        <v>718.6806</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-30330542.40281514</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="n">
+        <v>1</v>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>4.135</v>
+      </c>
+      <c r="C929" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D929" t="n">
+        <v>4.135</v>
+      </c>
+      <c r="E929" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F929" t="n">
+        <v>40255.519</v>
+      </c>
+      <c r="G929" t="n">
+        <v>-30370797.92181515</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="n">
+        <v>1</v>
+      </c>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="C930" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="D930" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="E930" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="F930" t="n">
+        <v>51239.727</v>
+      </c>
+      <c r="G930" t="n">
+        <v>-30422037.64881515</v>
+      </c>
+      <c r="H930" t="n">
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="n">
+        <v>1</v>
+      </c>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="C931" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="D931" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="E931" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="F931" t="n">
+        <v>1293.117</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-30423330.76581515</v>
+      </c>
+      <c r="H931" t="n">
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="n">
+        <v>1</v>
+      </c>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="C932" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="D932" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="E932" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="F932" t="n">
+        <v>11045.035</v>
+      </c>
+      <c r="G932" t="n">
+        <v>-30412285.73081515</v>
+      </c>
+      <c r="H932" t="n">
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="n">
+        <v>1</v>
+      </c>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="C933" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="D933" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="E933" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="F933" t="n">
+        <v>22538.392</v>
+      </c>
+      <c r="G933" t="n">
+        <v>-30434824.12281515</v>
+      </c>
+      <c r="H933" t="n">
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
+      <c r="L933" t="n">
+        <v>1</v>
+      </c>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="n">
+        <v>4.119</v>
+      </c>
+      <c r="C934" t="n">
+        <v>4.119</v>
+      </c>
+      <c r="D934" t="n">
+        <v>4.119</v>
+      </c>
+      <c r="E934" t="n">
+        <v>4.119</v>
+      </c>
+      <c r="F934" t="n">
+        <v>14024.872</v>
+      </c>
+      <c r="G934" t="n">
+        <v>-30448848.99481515</v>
+      </c>
+      <c r="H934" t="n">
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="n">
+        <v>1</v>
+      </c>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="C935" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="D935" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="E935" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="F935" t="n">
+        <v>40232.023</v>
+      </c>
+      <c r="G935" t="n">
+        <v>-30408616.97181515</v>
+      </c>
+      <c r="H935" t="n">
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="n">
+        <v>1</v>
+      </c>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C936" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="D936" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="E936" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F936" t="n">
+        <v>4537.794</v>
+      </c>
+      <c r="G936" t="n">
+        <v>-30404079.17781515</v>
+      </c>
+      <c r="H936" t="n">
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="n">
+        <v>1</v>
+      </c>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="C937" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="D937" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="E937" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="F937" t="n">
+        <v>7692.79</v>
+      </c>
+      <c r="G937" t="n">
+        <v>-30396386.38781515</v>
+      </c>
+      <c r="H937" t="n">
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
+      <c r="L937" t="n">
+        <v>1</v>
+      </c>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C938" t="n">
+        <v>4.133</v>
+      </c>
+      <c r="D938" t="n">
+        <v>4.133</v>
+      </c>
+      <c r="E938" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F938" t="n">
+        <v>22640.793</v>
+      </c>
+      <c r="G938" t="n">
+        <v>-30373745.59481515</v>
+      </c>
+      <c r="H938" t="n">
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
+      <c r="L938" t="n">
+        <v>1</v>
+      </c>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="n">
+        <v>4.136</v>
+      </c>
+      <c r="C939" t="n">
+        <v>4.138</v>
+      </c>
+      <c r="D939" t="n">
+        <v>4.138</v>
+      </c>
+      <c r="E939" t="n">
+        <v>4.136</v>
+      </c>
+      <c r="F939" t="n">
+        <v>31834.217</v>
+      </c>
+      <c r="G939" t="n">
+        <v>-30341911.37781515</v>
+      </c>
+      <c r="H939" t="n">
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="n">
+        <v>1</v>
+      </c>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="C940" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="D940" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="E940" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="F940" t="n">
+        <v>24294.621</v>
+      </c>
+      <c r="G940" t="n">
+        <v>-30366205.99881515</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="n">
+        <v>1</v>
+      </c>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="C941" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="D941" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="E941" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="F941" t="n">
+        <v>2379.074</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-30368585.07281515</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="n">
+        <v>1</v>
+      </c>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="C942" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="D942" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="E942" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="F942" t="n">
+        <v>15731.497</v>
+      </c>
+      <c r="G942" t="n">
+        <v>-30384316.56981515</v>
+      </c>
+      <c r="H942" t="n">
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="n">
+        <v>1</v>
+      </c>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="n">
+        <v>4.118</v>
+      </c>
+      <c r="C943" t="n">
+        <v>4.118</v>
+      </c>
+      <c r="D943" t="n">
+        <v>4.118</v>
+      </c>
+      <c r="E943" t="n">
+        <v>4.118</v>
+      </c>
+      <c r="F943" t="n">
+        <v>16326.859</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-30400643.42881515</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
+      <c r="L943" t="n">
+        <v>1</v>
+      </c>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C944" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="D944" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E944" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="F944" t="n">
+        <v>38288.733</v>
+      </c>
+      <c r="G944" t="n">
+        <v>-30438932.16181515</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="n">
+        <v>1</v>
+      </c>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="n">
+        <v>4.111</v>
+      </c>
+      <c r="C945" t="n">
+        <v>4.114</v>
+      </c>
+      <c r="D945" t="n">
+        <v>4.114</v>
+      </c>
+      <c r="E945" t="n">
+        <v>4.111</v>
+      </c>
+      <c r="F945" t="n">
+        <v>54124.594</v>
+      </c>
+      <c r="G945" t="n">
+        <v>-30493056.75581515</v>
+      </c>
+      <c r="H945" t="n">
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
+      <c r="L945" t="n">
+        <v>1</v>
+      </c>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C946" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D946" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E946" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F946" t="n">
+        <v>2755.705</v>
+      </c>
+      <c r="G946" t="n">
+        <v>-30495812.46081515</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
+      <c r="L946" t="n">
+        <v>1</v>
+      </c>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="n">
+        <v>4.114</v>
+      </c>
+      <c r="C947" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="D947" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="E947" t="n">
+        <v>4.114</v>
+      </c>
+      <c r="F947" t="n">
+        <v>13771.427</v>
+      </c>
+      <c r="G947" t="n">
+        <v>-30482041.03381515</v>
+      </c>
+      <c r="H947" t="n">
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="n">
+        <v>1</v>
+      </c>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="C948" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="D948" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="E948" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="F948" t="n">
+        <v>23180.03</v>
+      </c>
+      <c r="G948" t="n">
+        <v>-30482041.03381515</v>
+      </c>
+      <c r="H948" t="n">
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
+      <c r="L948" t="n">
+        <v>1</v>
+      </c>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C949" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D949" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E949" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F949" t="n">
+        <v>34898.645</v>
+      </c>
+      <c r="G949" t="n">
+        <v>-30516939.67881515</v>
+      </c>
+      <c r="H949" t="n">
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
+      <c r="L949" t="n">
+        <v>1</v>
+      </c>
+      <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C950" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D950" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E950" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="F950" t="n">
+        <v>40503.697</v>
+      </c>
+      <c r="G950" t="n">
+        <v>-30557443.37581515</v>
+      </c>
+      <c r="H950" t="n">
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
+      <c r="L950" t="n">
+        <v>1</v>
+      </c>
+      <c r="M950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="C951" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="D951" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="E951" t="n">
+        <v>4.093</v>
+      </c>
+      <c r="F951" t="n">
+        <v>24441.634</v>
+      </c>
+      <c r="G951" t="n">
+        <v>-30581885.00981515</v>
+      </c>
+      <c r="H951" t="n">
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
+      <c r="L951" t="n">
+        <v>1</v>
+      </c>
+      <c r="M951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="C952" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="D952" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="E952" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="F952" t="n">
+        <v>7193.193</v>
+      </c>
+      <c r="G952" t="n">
+        <v>-30574691.81681515</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
+      <c r="L952" t="n">
+        <v>1</v>
+      </c>
+      <c r="M952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" t="n">
+        <v>4.096</v>
+      </c>
+      <c r="C953" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="D953" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="E953" t="n">
+        <v>4.096</v>
+      </c>
+      <c r="F953" t="n">
+        <v>24776.047</v>
+      </c>
+      <c r="G953" t="n">
+        <v>-30549915.76981515</v>
+      </c>
+      <c r="H953" t="n">
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
+      <c r="L953" t="n">
+        <v>1</v>
+      </c>
+      <c r="M953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" t="n">
+        <v>4.098</v>
+      </c>
+      <c r="C954" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="D954" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="E954" t="n">
+        <v>4.098</v>
+      </c>
+      <c r="F954" t="n">
+        <v>65727.144</v>
+      </c>
+      <c r="G954" t="n">
+        <v>-30484188.62581515</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
+      <c r="L954" t="n">
+        <v>1</v>
+      </c>
+      <c r="M954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="C955" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="D955" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="E955" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="F955" t="n">
+        <v>80934.47199999999</v>
+      </c>
+      <c r="G955" t="n">
+        <v>-30565123.09781515</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
+      <c r="L955" t="n">
+        <v>1</v>
+      </c>
+      <c r="M955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C956" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D956" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E956" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F956" t="n">
+        <v>14016.3638</v>
+      </c>
+      <c r="G956" t="n">
+        <v>-30551106.73401515</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
+      <c r="L956" t="n">
+        <v>1</v>
+      </c>
+      <c r="M956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C957" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D957" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E957" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F957" t="n">
+        <v>28824.419</v>
+      </c>
+      <c r="G957" t="n">
+        <v>-30551106.73401515</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
+      <c r="L957" t="n">
+        <v>1</v>
+      </c>
+      <c r="M957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="C958" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="D958" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="E958" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="F958" t="n">
+        <v>20682.797</v>
+      </c>
+      <c r="G958" t="n">
+        <v>-30571789.53101515</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="n">
+        <v>1</v>
+      </c>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="C959" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="D959" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E959" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="F959" t="n">
+        <v>49214.296</v>
+      </c>
+      <c r="G959" t="n">
+        <v>-30571789.53101515</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="n">
+        <v>1</v>
+      </c>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="C960" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D960" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="E960" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="F960" t="n">
+        <v>26697.495</v>
+      </c>
+      <c r="G960" t="n">
+        <v>-30598487.02601515</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
+      <c r="L960" t="n">
+        <v>1</v>
+      </c>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="C961" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="D961" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="E961" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="F961" t="n">
+        <v>32320.632</v>
+      </c>
+      <c r="G961" t="n">
+        <v>-30598487.02601515</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="n">
+        <v>1</v>
+      </c>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="C962" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="D962" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="E962" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="F962" t="n">
+        <v>26975.5895</v>
+      </c>
+      <c r="G962" t="n">
+        <v>-30571511.43651515</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
+      <c r="L962" t="n">
+        <v>1</v>
+      </c>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="C963" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="D963" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="E963" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="F963" t="n">
+        <v>23657.433</v>
+      </c>
+      <c r="G963" t="n">
+        <v>-30547854.00351515</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
+      <c r="L963" t="n">
+        <v>1</v>
+      </c>
+      <c r="M963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="C964" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="D964" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="E964" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F964" t="n">
+        <v>90047.8337</v>
+      </c>
+      <c r="G964" t="n">
+        <v>-30637901.83721515</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="n">
+        <v>1</v>
+      </c>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="C965" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="D965" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="E965" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F965" t="n">
+        <v>131313.767</v>
+      </c>
+      <c r="G965" t="n">
+        <v>-30637901.83721515</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
+      <c r="L965" t="n">
+        <v>1</v>
+      </c>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="C966" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D966" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="E966" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F966" t="n">
+        <v>6829.9557</v>
+      </c>
+      <c r="G966" t="n">
+        <v>-30644731.79291515</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="n">
+        <v>1</v>
+      </c>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="C967" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="D967" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="E967" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="F967" t="n">
+        <v>26955.585</v>
+      </c>
+      <c r="G967" t="n">
+        <v>-30617776.20791515</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="n">
+        <v>1</v>
+      </c>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="C968" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="D968" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="E968" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="F968" t="n">
+        <v>43051.298</v>
+      </c>
+      <c r="G968" t="n">
+        <v>-30574724.90991515</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
+      <c r="L968" t="n">
+        <v>1</v>
+      </c>
+      <c r="M968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="C969" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="D969" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="E969" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="F969" t="n">
+        <v>25642.723</v>
+      </c>
+      <c r="G969" t="n">
+        <v>-30549082.18691515</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
+      <c r="L969" t="n">
+        <v>1</v>
+      </c>
+      <c r="M969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="C970" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="D970" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="E970" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F970" t="n">
+        <v>124289.927</v>
+      </c>
+      <c r="G970" t="n">
+        <v>-30673372.11391515</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="n">
+        <v>1</v>
+      </c>
+      <c r="M970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="C971" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="D971" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="E971" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="F971" t="n">
+        <v>11763.655</v>
+      </c>
+      <c r="G971" t="n">
+        <v>-30673372.11391515</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="n">
+        <v>1</v>
+      </c>
+      <c r="M971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="C972" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="D972" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="E972" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="F972" t="n">
+        <v>11117.695</v>
+      </c>
+      <c r="G972" t="n">
+        <v>-30662254.41891515</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="n">
+        <v>1</v>
+      </c>
+      <c r="M972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="C973" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="D973" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="E973" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="F973" t="n">
+        <v>32420.246</v>
+      </c>
+      <c r="G973" t="n">
+        <v>-30629834.17291515</v>
+      </c>
+      <c r="H973" t="n">
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
+      <c r="L973" t="n">
+        <v>1</v>
+      </c>
+      <c r="M973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="C974" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="D974" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="E974" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="F974" t="n">
+        <v>82001.47199999999</v>
+      </c>
+      <c r="G974" t="n">
+        <v>-30711835.64491515</v>
+      </c>
+      <c r="H974" t="n">
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="n">
+        <v>1</v>
+      </c>
+      <c r="M974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="C975" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="D975" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="E975" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="F975" t="n">
+        <v>55712.702</v>
+      </c>
+      <c r="G975" t="n">
+        <v>-30656122.94291515</v>
+      </c>
+      <c r="H975" t="n">
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="n">
+        <v>1</v>
+      </c>
+      <c r="M975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="C976" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="D976" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="E976" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="F976" t="n">
+        <v>4878.869</v>
+      </c>
+      <c r="G976" t="n">
+        <v>-30661001.81191515</v>
+      </c>
+      <c r="H976" t="n">
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
+      <c r="L976" t="n">
+        <v>1</v>
+      </c>
+      <c r="M976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="C977" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="D977" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="E977" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="F977" t="n">
+        <v>29850.087</v>
+      </c>
+      <c r="G977" t="n">
+        <v>-30661001.81191515</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="n">
+        <v>1</v>
+      </c>
+      <c r="M977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="C978" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="D978" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="E978" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="F978" t="n">
+        <v>23331.862</v>
+      </c>
+      <c r="G978" t="n">
+        <v>-30661001.81191515</v>
+      </c>
+      <c r="H978" t="n">
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="n">
+        <v>1</v>
+      </c>
+      <c r="M978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="C979" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D979" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E979" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="F979" t="n">
+        <v>230684.8203</v>
+      </c>
+      <c r="G979" t="n">
+        <v>-30430316.99161515</v>
+      </c>
+      <c r="H979" t="n">
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="C916" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="D916" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="E916" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="F916" t="n">
-        <v>4229.501</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-30727919.25611514</v>
-      </c>
-      <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>4.073</v>
-      </c>
-      <c r="J916" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="C917" t="n">
-        <v>4.085</v>
-      </c>
-      <c r="D917" t="n">
-        <v>4.085</v>
-      </c>
-      <c r="E917" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="F917" t="n">
-        <v>18242.169</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-30709677.08711514</v>
-      </c>
-      <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>4.076</v>
-      </c>
-      <c r="J917" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L917" t="n">
-        <v>1</v>
-      </c>
-      <c r="M917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>4.088</v>
-      </c>
-      <c r="C918" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="D918" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="E918" t="n">
-        <v>4.088</v>
-      </c>
-      <c r="F918" t="n">
-        <v>35639.027</v>
-      </c>
-      <c r="G918" t="n">
-        <v>-30674038.06011514</v>
-      </c>
-      <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>4.085</v>
-      </c>
-      <c r="J918" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L918" t="n">
-        <v>1</v>
-      </c>
-      <c r="M918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="C919" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="D919" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="E919" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="F919" t="n">
-        <v>21452.338</v>
-      </c>
-      <c r="G919" t="n">
-        <v>-30674038.06011514</v>
-      </c>
-      <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="J919" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L919" t="n">
-        <v>1</v>
-      </c>
-      <c r="M919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="C920" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D920" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E920" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="F920" t="n">
-        <v>51421.913</v>
-      </c>
-      <c r="G920" t="n">
-        <v>-30622616.14711514</v>
-      </c>
-      <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="J920" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L920" t="n">
-        <v>1</v>
-      </c>
-      <c r="M920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>4.085</v>
-      </c>
-      <c r="C921" t="n">
-        <v>4.087</v>
-      </c>
-      <c r="D921" t="n">
-        <v>4.087</v>
-      </c>
-      <c r="E921" t="n">
-        <v>4.085</v>
-      </c>
-      <c r="F921" t="n">
-        <v>8920.648999999999</v>
-      </c>
-      <c r="G921" t="n">
-        <v>-30631536.79611515</v>
-      </c>
-      <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="J921" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L921" t="n">
-        <v>1</v>
-      </c>
-      <c r="M921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="C922" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="D922" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="E922" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="F922" t="n">
-        <v>10185.733</v>
-      </c>
-      <c r="G922" t="n">
-        <v>-30621351.06311515</v>
-      </c>
-      <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>4.087</v>
-      </c>
-      <c r="J922" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L922" t="n">
-        <v>1</v>
-      </c>
-      <c r="M922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C923" t="n">
-        <v>4.098</v>
-      </c>
-      <c r="D923" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E923" t="n">
-        <v>4.094</v>
-      </c>
-      <c r="F923" t="n">
-        <v>33351.3647</v>
-      </c>
-      <c r="G923" t="n">
-        <v>-30587999.69841515</v>
-      </c>
-      <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="J923" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L923" t="n">
-        <v>1</v>
-      </c>
-      <c r="M923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>4.094</v>
-      </c>
-      <c r="C924" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="D924" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="E924" t="n">
-        <v>4.094</v>
-      </c>
-      <c r="F924" t="n">
-        <v>82509.83100000001</v>
-      </c>
-      <c r="G924" t="n">
-        <v>-30670509.52941515</v>
-      </c>
-      <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>4.098</v>
-      </c>
-      <c r="J924" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L924" t="n">
-        <v>1</v>
-      </c>
-      <c r="M924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="C925" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="D925" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="E925" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="F925" t="n">
-        <v>44138.745</v>
-      </c>
-      <c r="G925" t="n">
-        <v>-30626370.78441514</v>
-      </c>
-      <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="J925" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L925" t="n">
-        <v>1</v>
-      </c>
-      <c r="M925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="C926" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="D926" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="E926" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="F926" t="n">
-        <v>48820.94</v>
-      </c>
-      <c r="G926" t="n">
-        <v>-30626370.78441514</v>
-      </c>
-      <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="J926" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
-      <c r="M926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="C927" t="n">
-        <v>4.139</v>
-      </c>
-      <c r="D927" t="n">
-        <v>4.139</v>
-      </c>
-      <c r="E927" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="F927" t="n">
-        <v>295828.3816</v>
-      </c>
-      <c r="G927" t="n">
-        <v>-30330542.40281514</v>
-      </c>
-      <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="J927" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L927" t="n">
-        <v>1</v>
-      </c>
-      <c r="M927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>4.139</v>
-      </c>
-      <c r="C928" t="n">
-        <v>4.139</v>
-      </c>
-      <c r="D928" t="n">
-        <v>4.139</v>
-      </c>
-      <c r="E928" t="n">
-        <v>4.139</v>
-      </c>
-      <c r="F928" t="n">
-        <v>718.6806</v>
-      </c>
-      <c r="G928" t="n">
-        <v>-30330542.40281514</v>
-      </c>
-      <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L928" t="n">
-        <v>1</v>
-      </c>
-      <c r="M928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>4.135</v>
-      </c>
-      <c r="C929" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D929" t="n">
-        <v>4.135</v>
-      </c>
-      <c r="E929" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F929" t="n">
-        <v>40255.519</v>
-      </c>
-      <c r="G929" t="n">
-        <v>-30370797.92181515</v>
-      </c>
-      <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L929" t="n">
-        <v>1</v>
-      </c>
-      <c r="M929" t="inlineStr"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>4.126</v>
-      </c>
-      <c r="C930" t="n">
-        <v>4.128</v>
-      </c>
-      <c r="D930" t="n">
-        <v>4.128</v>
-      </c>
-      <c r="E930" t="n">
-        <v>4.126</v>
-      </c>
-      <c r="F930" t="n">
-        <v>51239.727</v>
-      </c>
-      <c r="G930" t="n">
-        <v>-30422037.64881515</v>
-      </c>
-      <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L930" t="n">
-        <v>1</v>
-      </c>
-      <c r="M930" t="inlineStr"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="C931" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="D931" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="E931" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="F931" t="n">
-        <v>1293.117</v>
-      </c>
-      <c r="G931" t="n">
-        <v>-30423330.76581515</v>
-      </c>
-      <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L931" t="n">
-        <v>1</v>
-      </c>
-      <c r="M931" t="inlineStr"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-      <c r="B932" t="n">
-        <v>4.127</v>
-      </c>
-      <c r="C932" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="D932" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="E932" t="n">
-        <v>4.127</v>
-      </c>
-      <c r="F932" t="n">
-        <v>11045.035</v>
-      </c>
-      <c r="G932" t="n">
-        <v>-30412285.73081515</v>
-      </c>
-      <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L932" t="n">
-        <v>1</v>
-      </c>
-      <c r="M932" t="inlineStr"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-      <c r="B933" t="n">
-        <v>4.126</v>
-      </c>
-      <c r="C933" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="D933" t="n">
-        <v>4.126</v>
-      </c>
-      <c r="E933" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="F933" t="n">
-        <v>22538.392</v>
-      </c>
-      <c r="G933" t="n">
-        <v>-30434824.12281515</v>
-      </c>
-      <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L933" t="n">
-        <v>1</v>
-      </c>
-      <c r="M933" t="inlineStr"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-      <c r="B934" t="n">
-        <v>4.119</v>
-      </c>
-      <c r="C934" t="n">
-        <v>4.119</v>
-      </c>
-      <c r="D934" t="n">
-        <v>4.119</v>
-      </c>
-      <c r="E934" t="n">
-        <v>4.119</v>
-      </c>
-      <c r="F934" t="n">
-        <v>14024.872</v>
-      </c>
-      <c r="G934" t="n">
-        <v>-30448848.99481515</v>
-      </c>
-      <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L934" t="n">
-        <v>1</v>
-      </c>
-      <c r="M934" t="inlineStr"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B935" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="C935" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="D935" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="E935" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="F935" t="n">
-        <v>40232.023</v>
-      </c>
-      <c r="G935" t="n">
-        <v>-30408616.97181515</v>
-      </c>
-      <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L935" t="n">
-        <v>1</v>
-      </c>
-      <c r="M935" t="inlineStr"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B936" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C936" t="n">
-        <v>4.124</v>
-      </c>
-      <c r="D936" t="n">
-        <v>4.124</v>
-      </c>
-      <c r="E936" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F936" t="n">
-        <v>4537.794</v>
-      </c>
-      <c r="G936" t="n">
-        <v>-30404079.17781515</v>
-      </c>
-      <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L936" t="n">
-        <v>1</v>
-      </c>
-      <c r="M936" t="inlineStr"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="B937" t="n">
-        <v>4.127</v>
-      </c>
-      <c r="C937" t="n">
-        <v>4.127</v>
-      </c>
-      <c r="D937" t="n">
-        <v>4.127</v>
-      </c>
-      <c r="E937" t="n">
-        <v>4.127</v>
-      </c>
-      <c r="F937" t="n">
-        <v>7692.79</v>
-      </c>
-      <c r="G937" t="n">
-        <v>-30396386.38781515</v>
-      </c>
-      <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L937" t="n">
-        <v>1</v>
-      </c>
-      <c r="M937" t="inlineStr"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B938" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C938" t="n">
-        <v>4.133</v>
-      </c>
-      <c r="D938" t="n">
-        <v>4.133</v>
-      </c>
-      <c r="E938" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F938" t="n">
-        <v>22640.793</v>
-      </c>
-      <c r="G938" t="n">
-        <v>-30373745.59481515</v>
-      </c>
-      <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L938" t="n">
-        <v>1</v>
-      </c>
-      <c r="M938" t="inlineStr"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="1" t="n">
-        <v>937</v>
-      </c>
-      <c r="B939" t="n">
-        <v>4.136</v>
-      </c>
-      <c r="C939" t="n">
-        <v>4.138</v>
-      </c>
-      <c r="D939" t="n">
-        <v>4.138</v>
-      </c>
-      <c r="E939" t="n">
-        <v>4.136</v>
-      </c>
-      <c r="F939" t="n">
-        <v>31834.217</v>
-      </c>
-      <c r="G939" t="n">
-        <v>-30341911.37781515</v>
-      </c>
-      <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L939" t="n">
-        <v>1</v>
-      </c>
-      <c r="M939" t="inlineStr"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-      <c r="B940" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="C940" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="D940" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="E940" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="F940" t="n">
-        <v>24294.621</v>
-      </c>
-      <c r="G940" t="n">
-        <v>-30366205.99881515</v>
-      </c>
-      <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L940" t="n">
-        <v>1</v>
-      </c>
-      <c r="M940" t="inlineStr"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>4.126</v>
-      </c>
-      <c r="C941" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="D941" t="n">
-        <v>4.126</v>
-      </c>
-      <c r="E941" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="F941" t="n">
-        <v>2379.074</v>
-      </c>
-      <c r="G941" t="n">
-        <v>-30368585.07281515</v>
-      </c>
-      <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L941" t="n">
-        <v>1</v>
-      </c>
-      <c r="M941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>4.124</v>
-      </c>
-      <c r="C942" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="D942" t="n">
-        <v>4.124</v>
-      </c>
-      <c r="E942" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="F942" t="n">
-        <v>15731.497</v>
-      </c>
-      <c r="G942" t="n">
-        <v>-30384316.56981515</v>
-      </c>
-      <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L942" t="n">
-        <v>1</v>
-      </c>
-      <c r="M942" t="inlineStr"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="C943" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="D943" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="E943" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="F943" t="n">
-        <v>16326.859</v>
-      </c>
-      <c r="G943" t="n">
-        <v>-30400643.42881515</v>
-      </c>
-      <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L943" t="n">
-        <v>1</v>
-      </c>
-      <c r="M943" t="inlineStr"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C944" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="D944" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E944" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="F944" t="n">
-        <v>38288.733</v>
-      </c>
-      <c r="G944" t="n">
-        <v>-30438932.16181515</v>
-      </c>
-      <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L944" t="n">
-        <v>1</v>
-      </c>
-      <c r="M944" t="inlineStr"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-      <c r="B945" t="n">
-        <v>4.111</v>
-      </c>
-      <c r="C945" t="n">
-        <v>4.114</v>
-      </c>
-      <c r="D945" t="n">
-        <v>4.114</v>
-      </c>
-      <c r="E945" t="n">
-        <v>4.111</v>
-      </c>
-      <c r="F945" t="n">
-        <v>54124.594</v>
-      </c>
-      <c r="G945" t="n">
-        <v>-30493056.75581515</v>
-      </c>
-      <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L945" t="n">
-        <v>1</v>
-      </c>
-      <c r="M945" t="inlineStr"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="1" t="n">
-        <v>944</v>
-      </c>
-      <c r="B946" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C946" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D946" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E946" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F946" t="n">
-        <v>2755.705</v>
-      </c>
-      <c r="G946" t="n">
-        <v>-30495812.46081515</v>
-      </c>
-      <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L946" t="n">
-        <v>1</v>
-      </c>
-      <c r="M946" t="inlineStr"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="1" t="n">
-        <v>945</v>
-      </c>
-      <c r="B947" t="n">
-        <v>4.114</v>
-      </c>
-      <c r="C947" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="D947" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="E947" t="n">
-        <v>4.114</v>
-      </c>
-      <c r="F947" t="n">
-        <v>13771.427</v>
-      </c>
-      <c r="G947" t="n">
-        <v>-30482041.03381515</v>
-      </c>
-      <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L947" t="n">
-        <v>1</v>
-      </c>
-      <c r="M947" t="inlineStr"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-      <c r="B948" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="C948" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="D948" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="E948" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="F948" t="n">
-        <v>23180.03</v>
-      </c>
-      <c r="G948" t="n">
-        <v>-30482041.03381515</v>
-      </c>
-      <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L948" t="n">
-        <v>1</v>
-      </c>
-      <c r="M948" t="inlineStr"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="B949" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C949" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="D949" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E949" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="F949" t="n">
-        <v>34898.645</v>
-      </c>
-      <c r="G949" t="n">
-        <v>-30516939.67881515</v>
-      </c>
-      <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L949" t="n">
-        <v>1</v>
-      </c>
-      <c r="M949" t="inlineStr"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="1" t="n">
-        <v>948</v>
-      </c>
-      <c r="B950" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="C950" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D950" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="E950" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="F950" t="n">
-        <v>40503.697</v>
-      </c>
-      <c r="G950" t="n">
-        <v>-30557443.37581515</v>
-      </c>
-      <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L950" t="n">
-        <v>1</v>
-      </c>
-      <c r="M950" t="inlineStr"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="1" t="n">
-        <v>949</v>
-      </c>
-      <c r="B951" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="C951" t="n">
-        <v>4.094</v>
-      </c>
-      <c r="D951" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="E951" t="n">
-        <v>4.093</v>
-      </c>
-      <c r="F951" t="n">
-        <v>24441.634</v>
-      </c>
-      <c r="G951" t="n">
-        <v>-30581885.00981515</v>
-      </c>
-      <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L951" t="n">
-        <v>1</v>
-      </c>
-      <c r="M951" t="inlineStr"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="1" t="n">
-        <v>950</v>
-      </c>
-      <c r="B952" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="C952" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="D952" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="E952" t="n">
-        <v>4.095</v>
-      </c>
-      <c r="F952" t="n">
-        <v>7193.193</v>
-      </c>
-      <c r="G952" t="n">
-        <v>-30574691.81681515</v>
-      </c>
-      <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L952" t="n">
-        <v>1</v>
-      </c>
-      <c r="M952" t="inlineStr"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="B953" t="n">
-        <v>4.096</v>
-      </c>
-      <c r="C953" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="D953" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="E953" t="n">
-        <v>4.096</v>
-      </c>
-      <c r="F953" t="n">
-        <v>24776.047</v>
-      </c>
-      <c r="G953" t="n">
-        <v>-30549915.76981515</v>
-      </c>
-      <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L953" t="n">
-        <v>1</v>
-      </c>
-      <c r="M953" t="inlineStr"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="1" t="n">
-        <v>952</v>
-      </c>
-      <c r="B954" t="n">
-        <v>4.098</v>
-      </c>
-      <c r="C954" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="D954" t="n">
-        <v>4.099</v>
-      </c>
-      <c r="E954" t="n">
-        <v>4.098</v>
-      </c>
-      <c r="F954" t="n">
-        <v>65727.144</v>
-      </c>
-      <c r="G954" t="n">
-        <v>-30484188.62581515</v>
-      </c>
-      <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L954" t="n">
-        <v>1</v>
-      </c>
-      <c r="M954" t="inlineStr"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="1" t="n">
-        <v>953</v>
-      </c>
-      <c r="B955" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="C955" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="D955" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="E955" t="n">
-        <v>4.097</v>
-      </c>
-      <c r="F955" t="n">
-        <v>80934.47199999999</v>
-      </c>
-      <c r="G955" t="n">
-        <v>-30565123.09781515</v>
-      </c>
-      <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L955" t="n">
-        <v>1</v>
-      </c>
-      <c r="M955" t="inlineStr"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="1" t="n">
-        <v>954</v>
-      </c>
-      <c r="B956" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C956" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="D956" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E956" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="F956" t="n">
-        <v>14016.3638</v>
-      </c>
-      <c r="G956" t="n">
-        <v>-30551106.73401515</v>
-      </c>
-      <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L956" t="n">
-        <v>1</v>
-      </c>
-      <c r="M956" t="inlineStr"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="1" t="n">
-        <v>955</v>
-      </c>
-      <c r="B957" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="C957" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="D957" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="E957" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="F957" t="n">
-        <v>28824.419</v>
-      </c>
-      <c r="G957" t="n">
-        <v>-30551106.73401515</v>
-      </c>
-      <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L957" t="n">
-        <v>1</v>
-      </c>
-      <c r="M957" t="inlineStr"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="1" t="n">
-        <v>956</v>
-      </c>
-      <c r="B958" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="C958" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="D958" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="E958" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="F958" t="n">
-        <v>20682.797</v>
-      </c>
-      <c r="G958" t="n">
-        <v>-30571789.53101515</v>
-      </c>
-      <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L958" t="n">
-        <v>1</v>
-      </c>
-      <c r="M958" t="inlineStr"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="B959" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="C959" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="D959" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="E959" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="F959" t="n">
-        <v>49214.296</v>
-      </c>
-      <c r="G959" t="n">
-        <v>-30571789.53101515</v>
-      </c>
-      <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L959" t="n">
-        <v>1</v>
-      </c>
-      <c r="M959" t="inlineStr"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-      <c r="B960" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="C960" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D960" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="E960" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="F960" t="n">
-        <v>26697.495</v>
-      </c>
-      <c r="G960" t="n">
-        <v>-30598487.02601515</v>
-      </c>
-      <c r="H960" t="n">
-        <v>1</v>
-      </c>
-      <c r="I960" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="J960" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L960" t="n">
-        <v>1</v>
-      </c>
-      <c r="M960" t="inlineStr"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-      <c r="B961" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="C961" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="D961" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="E961" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="F961" t="n">
-        <v>32320.632</v>
-      </c>
-      <c r="G961" t="n">
-        <v>-30598487.02601515</v>
-      </c>
-      <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="J961" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L961" t="n">
-        <v>1</v>
-      </c>
-      <c r="M961" t="inlineStr"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-      <c r="B962" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="C962" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="D962" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="E962" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="F962" t="n">
-        <v>26975.5895</v>
-      </c>
-      <c r="G962" t="n">
-        <v>-30571511.43651515</v>
-      </c>
-      <c r="H962" t="n">
-        <v>1</v>
-      </c>
-      <c r="I962" t="n">
-        <v>4.107</v>
-      </c>
-      <c r="J962" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L962" t="n">
-        <v>1</v>
-      </c>
-      <c r="M962" t="inlineStr"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-      <c r="B963" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="C963" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="D963" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="E963" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="F963" t="n">
-        <v>23657.433</v>
-      </c>
-      <c r="G963" t="n">
-        <v>-30547854.00351515</v>
-      </c>
-      <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="J963" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L963" t="n">
-        <v>1</v>
-      </c>
-      <c r="M963" t="inlineStr"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-      <c r="B964" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="C964" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="D964" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="E964" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F964" t="n">
-        <v>90047.8337</v>
-      </c>
-      <c r="G964" t="n">
-        <v>-30637901.83721515</v>
-      </c>
-      <c r="H964" t="n">
-        <v>1</v>
-      </c>
-      <c r="I964" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="J964" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L964" t="n">
-        <v>1</v>
-      </c>
-      <c r="M964" t="inlineStr"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-      <c r="B965" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="C965" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="D965" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="E965" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F965" t="n">
-        <v>131313.767</v>
-      </c>
-      <c r="G965" t="n">
-        <v>-30637901.83721515</v>
-      </c>
-      <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L965" t="n">
-        <v>1</v>
-      </c>
-      <c r="M965" t="inlineStr"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-      <c r="B966" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="C966" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D966" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="E966" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F966" t="n">
-        <v>6829.9557</v>
-      </c>
-      <c r="G966" t="n">
-        <v>-30644731.79291515</v>
-      </c>
-      <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="J966" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L966" t="n">
-        <v>1</v>
-      </c>
-      <c r="M966" t="inlineStr"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="B967" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="C967" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="D967" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="E967" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="F967" t="n">
-        <v>26955.585</v>
-      </c>
-      <c r="G967" t="n">
-        <v>-30617776.20791515</v>
-      </c>
-      <c r="H967" t="n">
-        <v>1</v>
-      </c>
-      <c r="I967" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J967" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L967" t="n">
-        <v>1</v>
-      </c>
-      <c r="M967" t="inlineStr"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-      <c r="B968" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="C968" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="D968" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="E968" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="F968" t="n">
-        <v>43051.298</v>
-      </c>
-      <c r="G968" t="n">
-        <v>-30574724.90991515</v>
-      </c>
-      <c r="H968" t="n">
-        <v>1</v>
-      </c>
-      <c r="I968" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J968" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L968" t="n">
-        <v>1</v>
-      </c>
-      <c r="M968" t="inlineStr"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>967</v>
-      </c>
-      <c r="B969" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="C969" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="D969" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="E969" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="F969" t="n">
-        <v>25642.723</v>
-      </c>
-      <c r="G969" t="n">
-        <v>-30549082.18691515</v>
-      </c>
-      <c r="H969" t="n">
-        <v>1</v>
-      </c>
-      <c r="I969" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="J969" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L969" t="n">
-        <v>1</v>
-      </c>
-      <c r="M969" t="inlineStr"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>968</v>
-      </c>
-      <c r="B970" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="C970" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="D970" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="E970" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F970" t="n">
-        <v>124289.927</v>
-      </c>
-      <c r="G970" t="n">
-        <v>-30673372.11391515</v>
-      </c>
-      <c r="H970" t="n">
-        <v>1</v>
-      </c>
-      <c r="I970" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="J970" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L970" t="n">
-        <v>1</v>
-      </c>
-      <c r="M970" t="inlineStr"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>969</v>
-      </c>
-      <c r="B971" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="C971" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="D971" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="E971" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="F971" t="n">
-        <v>11763.655</v>
-      </c>
-      <c r="G971" t="n">
-        <v>-30673372.11391515</v>
-      </c>
-      <c r="H971" t="n">
-        <v>1</v>
-      </c>
-      <c r="I971" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J971" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L971" t="n">
-        <v>1</v>
-      </c>
-      <c r="M971" t="inlineStr"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>970</v>
-      </c>
-      <c r="B972" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="C972" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="D972" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="E972" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="F972" t="n">
-        <v>11117.695</v>
-      </c>
-      <c r="G972" t="n">
-        <v>-30662254.41891515</v>
-      </c>
-      <c r="H972" t="n">
-        <v>1</v>
-      </c>
-      <c r="I972" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J972" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L972" t="n">
-        <v>1</v>
-      </c>
-      <c r="M972" t="inlineStr"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>971</v>
-      </c>
-      <c r="B973" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="C973" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="D973" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="E973" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="F973" t="n">
-        <v>32420.246</v>
-      </c>
-      <c r="G973" t="n">
-        <v>-30629834.17291515</v>
-      </c>
-      <c r="H973" t="n">
-        <v>1</v>
-      </c>
-      <c r="I973" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="J973" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L973" t="n">
-        <v>1</v>
-      </c>
-      <c r="M973" t="inlineStr"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>972</v>
-      </c>
-      <c r="B974" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="C974" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="D974" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="E974" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="F974" t="n">
-        <v>82001.47199999999</v>
-      </c>
-      <c r="G974" t="n">
-        <v>-30711835.64491515</v>
-      </c>
-      <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L974" t="n">
-        <v>1</v>
-      </c>
-      <c r="M974" t="inlineStr"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="1" t="n">
-        <v>973</v>
-      </c>
-      <c r="B975" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="C975" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="D975" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="E975" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="F975" t="n">
-        <v>55712.702</v>
-      </c>
-      <c r="G975" t="n">
-        <v>-30656122.94291515</v>
-      </c>
-      <c r="H975" t="n">
-        <v>1</v>
-      </c>
-      <c r="I975" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="J975" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L975" t="n">
-        <v>1</v>
-      </c>
-      <c r="M975" t="inlineStr"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>974</v>
-      </c>
-      <c r="B976" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="C976" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="D976" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="E976" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="F976" t="n">
-        <v>4878.869</v>
-      </c>
-      <c r="G976" t="n">
-        <v>-30661001.81191515</v>
-      </c>
-      <c r="H976" t="n">
-        <v>1</v>
-      </c>
-      <c r="I976" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="J976" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L976" t="n">
-        <v>1</v>
-      </c>
-      <c r="M976" t="inlineStr"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>975</v>
-      </c>
-      <c r="B977" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="C977" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="D977" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="E977" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="F977" t="n">
-        <v>29850.087</v>
-      </c>
-      <c r="G977" t="n">
-        <v>-30661001.81191515</v>
-      </c>
-      <c r="H977" t="n">
-        <v>1</v>
-      </c>
-      <c r="I977" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="J977" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L977" t="n">
-        <v>1</v>
-      </c>
-      <c r="M977" t="inlineStr"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>976</v>
-      </c>
-      <c r="B978" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="C978" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="D978" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="E978" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="F978" t="n">
-        <v>23331.862</v>
-      </c>
-      <c r="G978" t="n">
-        <v>-30661001.81191515</v>
-      </c>
-      <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L978" t="n">
-        <v>1</v>
-      </c>
-      <c r="M978" t="inlineStr"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>977</v>
-      </c>
-      <c r="B979" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="C979" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D979" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E979" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="F979" t="n">
-        <v>230684.8203</v>
-      </c>
-      <c r="G979" t="n">
-        <v>-30430316.99161515</v>
-      </c>
-      <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>4.102</v>
-      </c>
-      <c r="J979" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33195,12 +32747,12 @@
         <v>-30366233.82271514</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33237,9 +32789,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33276,9 +32826,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33315,9 +32863,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33354,9 +32900,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33393,9 +32937,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33432,9 +32974,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33471,9 +33011,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33510,9 +33048,7 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33549,9 +33085,7 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33588,9 +33122,7 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33627,9 +33159,7 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33666,9 +33196,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33705,9 +33233,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33744,9 +33270,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33783,9 +33307,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33822,9 +33344,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33861,9 +33381,7 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33900,9 +33418,7 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33939,9 +33455,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33978,9 +33492,7 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34017,9 +33529,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34056,9 +33566,7 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34095,9 +33603,7 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34134,9 +33640,7 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34173,9 +33677,7 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34209,14 +33711,10 @@
         <v>-31085754.88371513</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>4.112</v>
-      </c>
-      <c r="J1006" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34250,14 +33748,10 @@
         <v>-31077353.26971513</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>4.112</v>
-      </c>
-      <c r="J1007" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34294,9 +33788,7 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34333,9 +33825,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34372,9 +33862,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34411,9 +33899,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34450,9 +33936,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34489,9 +33973,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34528,9 +34010,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34567,9 +34047,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34606,9 +34084,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34645,9 +34121,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34684,9 +34158,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34723,9 +34195,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34759,14 +34229,10 @@
         <v>-31068843.08411513</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="J1020" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34800,14 +34266,10 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J1021" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34841,14 +34303,10 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J1022" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34885,9 +34343,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34924,9 +34380,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34963,9 +34417,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34999,14 +34451,10 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="J1026" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35040,14 +34488,10 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1027" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="J1027" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35081,14 +34525,10 @@
         <v>-31163581.95691513</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="J1028" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35122,14 +34562,10 @@
         <v>-31241168.04091513</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="J1029" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35163,14 +34599,10 @@
         <v>-31194382.33291513</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>4.106</v>
-      </c>
-      <c r="J1030" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35207,9 +34639,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35243,14 +34673,10 @@
         <v>-31846906.68151513</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="J1032" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35287,9 +34713,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35326,9 +34750,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35365,9 +34787,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35404,9 +34824,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35443,9 +34861,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35482,9 +34898,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35521,9 +34935,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35557,14 +34969,10 @@
         <v>-31800469.57051513</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1040" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J1040" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35598,14 +35006,10 @@
         <v>-31798825.75951513</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J1041" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35639,14 +35043,10 @@
         <v>-31810810.15651513</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="J1042" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35680,14 +35080,10 @@
         <v>-31810810.15651513</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J1043" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35721,14 +35117,10 @@
         <v>-31810810.15651513</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J1044" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35762,14 +35154,10 @@
         <v>-31753728.93351513</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="J1045" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35806,9 +35194,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35845,9 +35231,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35884,9 +35268,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35923,9 +35305,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35962,9 +35342,7 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36001,9 +35379,7 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36040,9 +35416,7 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36079,9 +35453,7 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36118,9 +35490,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36157,9 +35527,7 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36196,9 +35564,7 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36235,9 +35601,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36274,9 +35638,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36313,9 +35675,7 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36352,9 +35712,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36391,9 +35749,7 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36430,9 +35786,7 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36469,9 +35823,7 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36508,9 +35860,7 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36547,9 +35897,7 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36586,9 +35934,7 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36625,9 +35971,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36664,9 +36008,7 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36703,9 +36045,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36742,9 +36082,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36781,9 +36119,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36820,9 +36156,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36859,9 +36193,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36898,9 +36230,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36937,9 +36267,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36976,9 +36304,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37015,9 +36341,7 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37054,9 +36378,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37093,9 +36415,7 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37132,9 +36452,7 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37171,9 +36489,7 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37210,9 +36526,7 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37249,9 +36563,7 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37288,9 +36600,7 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37327,9 +36637,7 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37366,9 +36674,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37402,14 +36708,10 @@
         <v>-31917699.78971513</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1087" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="J1087" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37443,14 +36745,10 @@
         <v>-31746837.79271513</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1088" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="J1088" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37487,9 +36785,7 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37523,14 +36819,10 @@
         <v>-31863208.10831513</v>
       </c>
       <c r="H1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="J1090" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37567,9 +36859,7 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37603,14 +36893,10 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="J1092" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37644,14 +36930,10 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>4.124</v>
-      </c>
-      <c r="J1093" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37685,14 +36967,10 @@
         <v>-31901176.96151513</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>4.124</v>
-      </c>
-      <c r="J1094" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37729,9 +37007,7 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37768,9 +37044,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37807,9 +37081,7 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37843,12 +37115,12 @@
         <v>-31900165.56551513</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37882,12 +37154,12 @@
         <v>-31900165.56551513</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37921,12 +37193,12 @@
         <v>-31833619.96651513</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37960,12 +37232,12 @@
         <v>-31832224.62351513</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37999,12 +37271,12 @@
         <v>-31832224.62351513</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38038,12 +37310,12 @@
         <v>-31795917.32851513</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38077,12 +37349,12 @@
         <v>-31820647.63351513</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38119,9 +37391,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38155,12 +37425,12 @@
         <v>-31820647.63351513</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38194,12 +37464,12 @@
         <v>-31834297.33951513</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38233,12 +37503,12 @@
         <v>-31788513.15251513</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38272,12 +37542,12 @@
         <v>-31788513.15251513</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38311,12 +37581,12 @@
         <v>-31743950.98851513</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38350,12 +37620,12 @@
         <v>-31743950.98851513</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38389,12 +37659,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38428,12 +37698,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38467,12 +37737,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38506,12 +37776,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38545,12 +37815,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38584,12 +37854,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38623,12 +37893,12 @@
         <v>-31735726.45771706</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38662,12 +37932,12 @@
         <v>-31757984.78271706</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>4.132</v>
+      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38701,12 +37971,12 @@
         <v>-31814189.45371706</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38740,12 +38010,12 @@
         <v>-31809400.88571706</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38779,12 +38049,12 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>4.131</v>
+      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38818,12 +38088,12 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>4.132</v>
+      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38857,12 +38127,12 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>4.132</v>
+      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38896,12 +38166,12 @@
         <v>-31712955.39371707</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>4.132</v>
+      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38935,12 +38205,12 @@
         <v>-31661978.33721707</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>4.133</v>
+      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38974,12 +38244,12 @@
         <v>-31426993.74468369</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>4.134</v>
+      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39016,9 +38286,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39055,9 +38323,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39094,9 +38360,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39133,9 +38397,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39172,9 +38434,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39211,9 +38471,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39250,9 +38508,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39286,12 +38542,12 @@
         <v>-33367618.19785032</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39325,12 +38581,12 @@
         <v>-33377173.37425032</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39364,14 +38620,10 @@
         <v>-33361580.87925032</v>
       </c>
       <c r="H1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1137" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="J1137" t="n">
-        <v>4.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39410,9 +38662,7 @@
       <c r="I1138" t="n">
         <v>4.105</v>
       </c>
-      <c r="J1138" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39451,9 +38701,7 @@
       <c r="I1139" t="n">
         <v>4.105</v>
       </c>
-      <c r="J1139" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39492,9 +38740,7 @@
       <c r="I1140" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1140" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39533,9 +38779,7 @@
       <c r="I1141" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1141" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39574,9 +38818,7 @@
       <c r="I1142" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1142" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39615,9 +38857,7 @@
       <c r="I1143" t="n">
         <v>4.103</v>
       </c>
-      <c r="J1143" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39656,9 +38896,7 @@
       <c r="I1144" t="n">
         <v>4.103</v>
       </c>
-      <c r="J1144" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39697,9 +38935,7 @@
       <c r="I1145" t="n">
         <v>4.105</v>
       </c>
-      <c r="J1145" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39738,9 +38974,7 @@
       <c r="I1146" t="n">
         <v>4.105</v>
       </c>
-      <c r="J1146" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39779,9 +39013,7 @@
       <c r="I1147" t="n">
         <v>4.105</v>
       </c>
-      <c r="J1147" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39815,12 +39047,12 @@
         <v>-33511857.90205032</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39859,9 +39091,7 @@
       <c r="I1149" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1149" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39900,9 +39130,7 @@
       <c r="I1150" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1150" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39936,12 +39164,12 @@
         <v>-33531349.04005032</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39980,9 +39208,7 @@
       <c r="I1152" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1152" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40021,9 +39247,7 @@
       <c r="I1153" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1153" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40062,9 +39286,7 @@
       <c r="I1154" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1154" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40098,12 +39320,12 @@
         <v>-33418775.48605032</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40137,12 +39359,12 @@
         <v>-33415863.11305032</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40181,9 +39403,7 @@
       <c r="I1157" t="n">
         <v>4.107</v>
       </c>
-      <c r="J1157" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40222,9 +39442,7 @@
       <c r="I1158" t="n">
         <v>4.108</v>
       </c>
-      <c r="J1158" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40258,12 +39476,12 @@
         <v>-33428741.57805032</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40302,9 +39520,7 @@
       <c r="I1160" t="n">
         <v>4.107</v>
       </c>
-      <c r="J1160" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40343,9 +39559,7 @@
       <c r="I1161" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1161" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40379,12 +39593,12 @@
         <v>-33426096.74105031</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40418,12 +39632,12 @@
         <v>-33406694.94405032</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40457,12 +39671,12 @@
         <v>-33406694.94405032</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>4.111</v>
+      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40496,12 +39710,12 @@
         <v>-33328508.65505031</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>4.111</v>
+      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40535,12 +39749,12 @@
         <v>-33322591.31005032</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>4.112</v>
+      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40574,12 +39788,12 @@
         <v>-33346071.08005032</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>4.113</v>
+      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40613,12 +39827,12 @@
         <v>-33302590.35805032</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>4.112</v>
+      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40652,12 +39866,12 @@
         <v>-33536741.46075032</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>4.113</v>
+      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40691,12 +39905,12 @@
         <v>-33600008.55175032</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40730,12 +39944,12 @@
         <v>-33592989.47075032</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40769,12 +39983,12 @@
         <v>-33584977.64875032</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40811,9 +40025,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40850,9 +40062,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40889,9 +40099,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>4.066</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40925,12 +40133,12 @@
         <v>-33622190.85875032</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40964,12 +40172,12 @@
         <v>-33601100.54075032</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41003,12 +40211,12 @@
         <v>-33601100.54075032</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>4.111</v>
+      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41042,12 +40250,12 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>4.111</v>
+      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41081,12 +40289,12 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>4.112</v>
+      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41120,12 +40328,12 @@
         <v>-33614617.62175032</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>4.066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>4.112</v>
+      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41137,6 +40345,6 @@
       <c r="M1181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-26 BackTest TMTG.xlsx
@@ -781,7 +781,7 @@
         <v>-8866276.4066</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8863598.876600001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8858430.797600001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8853251.262600001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8843741.8859</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8843861.8859</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8587092.721459581</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9049566.895095441</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9053679.027095441</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9052452.044095442</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-9049325.475095442</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9065432.216295442</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9054754.827295441</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-9054874.798295442</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-9056409.611295441</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-9053697.136295442</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9056565.456495441</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9057466.155495441</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9059350.47049544</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9055749.784495439</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-9053107.92549544</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9057171.04049544</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9062094.169495441</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9063214.037495442</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-9060955.504495442</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-9057289.752495442</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-9056120.463495441</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-9053969.168495441</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-9057434.920495441</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-9058200.250495441</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-9056774.16549544</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-9059611.147495441</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-9060090.618495442</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-9058768.953495443</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-9056387.027495442</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-9057412.128095442</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-9057855.487095442</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9059226.491095442</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-9056791.649095442</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-9422888.064395443</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-9425100.645395443</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-9428232.292395443</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-9645596.702395435</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-9242445.511627788</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-9242960.193627788</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-9254148.218927786</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-9258742.987927785</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-9259922.736927785</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-9274644.006927785</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-9256735.730927784</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-9256433.824927785</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-9312782.996027784</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-9096870.761527782</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-9101607.033527782</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-9066738.841527782</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-9140212.974527784</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-9135881.119527783</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-9699569.990527779</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-9691944.615527779</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-9682545.88152778</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-9688697.99342778</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9702531.431427779</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-9739504.94362778</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-9779083.02262778</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-15314634.70751513</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-15384852.20151513</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-15379556.10251513</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-15411426.28331513</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-15378541.98211513</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-15405100.86611513</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-15411345.50711513</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-15427122.81411513</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-15453603.84611513</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-15418008.58611513</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-15549274.35961513</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-15545221.51361513</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-15555216.19861513</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-15574523.54561513</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-15895736.19861513</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-15093454.54411513</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-15072316.26711513</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-15098552.29911513</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-15094803.80811513</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-15123326.58611513</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-15125328.22011513</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-15114559.75411513</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-15123031.31311513</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-15122500.64811513</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-15133415.94311513</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-15107872.20811513</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-15138729.59611513</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-15105172.70411513</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-15106066.50211513</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-15103426.58211513</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -30551,9 +30551,11 @@
         <v>-30825722.05641514</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>4.067</v>
+      </c>
       <c r="J914" t="n">
         <v>4.066</v>
       </c>
@@ -30590,9 +30592,11 @@
         <v>-30732148.75711514</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>4.069</v>
+      </c>
       <c r="J915" t="n">
         <v>4.066</v>
       </c>
@@ -30629,10 +30633,14 @@
         <v>-30727919.25611514</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>4.073</v>
+      </c>
+      <c r="J916" t="n">
+        <v>4.073</v>
+      </c>
       <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
@@ -30662,11 +30670,19 @@
         <v>-30709677.08711514</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="J917" t="n">
+        <v>4.073</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30695,11 +30711,19 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="J918" t="n">
+        <v>4.073</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30728,10 +30752,14 @@
         <v>-30674038.06011514</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="J919" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
@@ -30761,11 +30789,19 @@
         <v>-30622616.14711514</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="J920" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30794,11 +30830,19 @@
         <v>-30631536.79611515</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="J921" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30827,11 +30871,19 @@
         <v>-30621351.06311515</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>4.087</v>
+      </c>
+      <c r="J922" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30860,11 +30912,19 @@
         <v>-30587999.69841515</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="J923" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30896,8 +30956,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30929,8 +30995,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30959,11 +31031,19 @@
         <v>-30626370.78441514</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="J926" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30995,8 +31075,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31028,8 +31114,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31061,8 +31153,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31094,8 +31192,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31127,8 +31231,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31160,8 +31270,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31193,8 +31309,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31226,8 +31348,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31259,8 +31387,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31292,8 +31426,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31325,8 +31465,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31358,8 +31504,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31391,8 +31543,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31424,8 +31582,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31457,8 +31621,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31490,8 +31660,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31523,8 +31699,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31556,8 +31738,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31589,8 +31777,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31622,8 +31816,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31655,8 +31855,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31688,8 +31894,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31721,8 +31933,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31751,11 +31969,19 @@
         <v>-30557443.37581515</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="J950" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31784,11 +32010,19 @@
         <v>-30581885.00981515</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J951" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31817,11 +32051,19 @@
         <v>-30574691.81681515</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="J952" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31850,11 +32092,19 @@
         <v>-30549915.76981515</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="J953" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31883,11 +32133,19 @@
         <v>-30484188.62581515</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="J954" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31916,11 +32174,19 @@
         <v>-30565123.09781515</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="J955" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31949,11 +32215,19 @@
         <v>-30551106.73401515</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>4.097</v>
+      </c>
+      <c r="J956" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31982,11 +32256,19 @@
         <v>-30551106.73401515</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="J957" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32015,11 +32297,19 @@
         <v>-30571789.53101515</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="J958" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32048,11 +32338,19 @@
         <v>-30571789.53101515</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="J959" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32081,11 +32379,19 @@
         <v>-30598487.02601515</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="J960" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32114,11 +32420,19 @@
         <v>-30598487.02601515</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J961" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32147,11 +32461,19 @@
         <v>-30571511.43651515</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J962" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32180,11 +32502,19 @@
         <v>-30547854.00351515</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="J963" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32213,11 +32543,19 @@
         <v>-30637901.83721515</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J964" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32246,11 +32584,19 @@
         <v>-30637901.83721515</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="J965" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32279,11 +32625,19 @@
         <v>-30644731.79291515</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="J966" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32312,11 +32666,19 @@
         <v>-30617776.20791515</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J967" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32345,11 +32707,19 @@
         <v>-30574724.90991515</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="J968" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32378,11 +32748,19 @@
         <v>-30549082.18691515</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="J969" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32411,11 +32789,19 @@
         <v>-30673372.11391515</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="J970" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32444,11 +32830,19 @@
         <v>-30673372.11391515</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="J971" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32477,11 +32871,19 @@
         <v>-30662254.41891515</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="J972" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32510,11 +32912,19 @@
         <v>-30629834.17291515</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="J973" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32543,11 +32953,19 @@
         <v>-30711835.64491515</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="J974" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32576,11 +32994,19 @@
         <v>-30656122.94291515</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="J975" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32609,11 +33035,19 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="J976" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32642,11 +33076,19 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="J977" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32675,11 +33117,19 @@
         <v>-30661001.81191515</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="J978" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32713,10 +33163,12 @@
       <c r="I979" t="n">
         <v>4.102</v>
       </c>
-      <c r="J979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L979" t="n">
@@ -32747,12 +33199,12 @@
         <v>-30366233.82271514</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="J980" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32789,7 +33241,9 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32826,7 +33280,9 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32863,7 +33319,9 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32900,7 +33358,9 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32937,7 +33397,9 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32974,7 +33436,9 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33011,7 +33475,9 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33048,7 +33514,9 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33085,7 +33553,9 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33122,7 +33592,9 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33159,7 +33631,9 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33196,7 +33670,9 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33233,7 +33709,9 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33270,7 +33748,9 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33307,7 +33787,9 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33344,7 +33826,9 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33381,7 +33865,9 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33418,7 +33904,9 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33455,7 +33943,9 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33492,7 +33982,9 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33529,7 +34021,9 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33566,7 +34060,9 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33603,7 +34099,9 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33640,7 +34138,9 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33677,7 +34177,9 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33714,7 +34216,9 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33751,7 +34255,9 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33788,7 +34294,9 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33825,7 +34333,9 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33862,7 +34372,9 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33899,7 +34411,9 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33936,7 +34450,9 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33973,7 +34489,9 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34010,7 +34528,9 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34047,7 +34567,9 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34084,7 +34606,9 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34121,7 +34645,9 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34158,7 +34684,9 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34195,7 +34723,9 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34232,7 +34762,9 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34266,10 +34798,14 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34303,10 +34839,14 @@
         <v>-31066634.56031513</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34343,7 +34883,9 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34380,7 +34922,9 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34414,10 +34958,14 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34451,10 +34999,14 @@
         <v>-31117657.51691513</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34491,7 +35043,9 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34528,7 +35082,9 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34565,7 +35121,9 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34602,7 +35160,9 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34639,7 +35199,9 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34676,7 +35238,9 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34713,7 +35277,9 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34750,7 +35316,9 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34787,7 +35355,9 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34824,7 +35394,9 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34861,7 +35433,9 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34898,7 +35472,9 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34935,7 +35511,9 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34972,7 +35550,9 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35009,7 +35589,9 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35046,7 +35628,9 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35083,7 +35667,9 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35120,7 +35706,9 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35157,7 +35745,9 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
+      <c r="J1045" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35194,7 +35784,9 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
+      <c r="J1046" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35231,7 +35823,9 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35268,7 +35862,9 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35305,7 +35901,9 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35339,10 +35937,14 @@
         <v>-31669834.81651513</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35376,10 +35978,14 @@
         <v>-31666531.68051513</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35413,10 +36019,14 @@
         <v>-31679748.65051513</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>4.112</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35450,10 +36060,14 @@
         <v>-31692546.05151513</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35487,10 +36101,14 @@
         <v>-31726680.64051513</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35524,10 +36142,14 @@
         <v>-31682583.89251513</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35561,10 +36183,14 @@
         <v>-31681577.12151513</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35598,10 +36224,14 @@
         <v>-31691424.16551513</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35635,10 +36265,14 @@
         <v>-31671286.97871513</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>4.107</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35672,10 +36306,14 @@
         <v>-31684101.06471513</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35712,7 +36350,9 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35749,7 +36389,9 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35786,7 +36428,9 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35820,10 +36464,14 @@
         <v>-31681363.96771513</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35860,7 +36508,9 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35897,7 +36547,9 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35934,7 +36586,9 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35971,7 +36625,9 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36008,7 +36664,9 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36045,7 +36703,9 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36082,7 +36742,9 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36116,10 +36778,14 @@
         <v>-31704089.66271513</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36153,10 +36819,14 @@
         <v>-31704089.66271513</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36190,10 +36860,14 @@
         <v>-31704089.66271513</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36230,7 +36904,9 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36267,7 +36943,9 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36304,7 +36982,9 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36341,7 +37021,9 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36375,10 +37057,14 @@
         <v>-31700445.27471513</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36412,10 +37098,14 @@
         <v>-31700445.27471513</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36449,10 +37139,14 @@
         <v>-31741978.63271513</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36486,10 +37180,14 @@
         <v>-31738949.30471513</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36523,10 +37221,14 @@
         <v>-31751621.23771513</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>4.129</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36560,10 +37262,14 @@
         <v>-31763000.35471513</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36597,10 +37303,14 @@
         <v>-31796055.39771513</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36634,10 +37344,14 @@
         <v>-31840365.85671513</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36671,10 +37385,14 @@
         <v>-31835953.66771513</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36708,10 +37426,14 @@
         <v>-31917699.78971513</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36745,10 +37467,14 @@
         <v>-31746837.79271513</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36782,10 +37508,14 @@
         <v>-31863208.10831513</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36819,10 +37549,14 @@
         <v>-31863208.10831513</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36856,10 +37590,14 @@
         <v>-31842612.55131513</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36893,10 +37631,14 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36930,10 +37672,14 @@
         <v>-31814525.41631513</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36967,10 +37713,14 @@
         <v>-31901176.96151513</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37004,10 +37754,14 @@
         <v>-31901176.96151513</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37041,10 +37795,14 @@
         <v>-31891419.13751513</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37078,10 +37836,14 @@
         <v>-31918598.30351513</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>4.124</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37120,7 +37882,9 @@
       <c r="I1098" t="n">
         <v>4.122</v>
       </c>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37159,7 +37923,9 @@
       <c r="I1099" t="n">
         <v>4.123</v>
       </c>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37198,7 +37964,9 @@
       <c r="I1100" t="n">
         <v>4.123</v>
       </c>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37237,7 +38005,9 @@
       <c r="I1101" t="n">
         <v>4.125</v>
       </c>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37276,7 +38046,9 @@
       <c r="I1102" t="n">
         <v>4.126</v>
       </c>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37315,7 +38087,9 @@
       <c r="I1103" t="n">
         <v>4.126</v>
       </c>
-      <c r="J1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37354,7 +38128,9 @@
       <c r="I1104" t="n">
         <v>4.128</v>
       </c>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37388,10 +38164,14 @@
         <v>-31820647.63351513</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37430,7 +38210,9 @@
       <c r="I1106" t="n">
         <v>4.127</v>
       </c>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37469,7 +38251,9 @@
       <c r="I1107" t="n">
         <v>4.127</v>
       </c>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37508,7 +38292,9 @@
       <c r="I1108" t="n">
         <v>4.126</v>
       </c>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37547,7 +38333,9 @@
       <c r="I1109" t="n">
         <v>4.128</v>
       </c>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37586,7 +38374,9 @@
       <c r="I1110" t="n">
         <v>4.128</v>
       </c>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37620,12 +38410,12 @@
         <v>-31743950.98851513</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="J1111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37659,12 +38449,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1112" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="J1112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37698,12 +38488,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1113" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="J1113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37737,12 +38527,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="J1114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37776,12 +38566,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="J1115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37815,12 +38605,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="J1116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37854,12 +38644,12 @@
         <v>-31711154.27871706</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="J1117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37893,12 +38683,12 @@
         <v>-31735726.45771706</v>
       </c>
       <c r="H1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="J1118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37932,12 +38722,12 @@
         <v>-31757984.78271706</v>
       </c>
       <c r="H1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>4.132</v>
-      </c>
-      <c r="J1119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37971,12 +38761,12 @@
         <v>-31814189.45371706</v>
       </c>
       <c r="H1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J1120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38010,12 +38800,12 @@
         <v>-31809400.88571706</v>
       </c>
       <c r="H1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1121" t="n">
-        <v>4.129</v>
-      </c>
-      <c r="J1121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38049,12 +38839,12 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>4.131</v>
-      </c>
-      <c r="J1122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38088,12 +38878,12 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1123" t="n">
-        <v>4.132</v>
-      </c>
-      <c r="J1123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38127,12 +38917,12 @@
         <v>-31801507.47471707</v>
       </c>
       <c r="H1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1124" t="n">
-        <v>4.132</v>
-      </c>
-      <c r="J1124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38166,12 +38956,12 @@
         <v>-31712955.39371707</v>
       </c>
       <c r="H1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1125" t="n">
-        <v>4.132</v>
-      </c>
-      <c r="J1125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38205,12 +38995,12 @@
         <v>-31661978.33721707</v>
       </c>
       <c r="H1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1126" t="n">
-        <v>4.133</v>
-      </c>
-      <c r="J1126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38244,12 +39034,12 @@
         <v>-31426993.74468369</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="J1127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38286,7 +39076,9 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38323,7 +39115,9 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38360,7 +39154,9 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38397,7 +39193,9 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38434,7 +39232,9 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38471,7 +39271,9 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38508,7 +39310,9 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38542,12 +39346,12 @@
         <v>-33367618.19785032</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1135" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="J1135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38581,12 +39385,12 @@
         <v>-33377173.37425032</v>
       </c>
       <c r="H1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1136" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="J1136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38623,7 +39427,9 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38657,12 +39463,12 @@
         <v>-33361580.87925032</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J1138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38696,12 +39502,12 @@
         <v>-33307722.25025032</v>
       </c>
       <c r="H1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J1139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38740,7 +39546,9 @@
       <c r="I1140" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38774,12 +39582,12 @@
         <v>-33440118.26325032</v>
       </c>
       <c r="H1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>4.104</v>
-      </c>
-      <c r="J1141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38818,7 +39626,9 @@
       <c r="I1142" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38857,7 +39667,9 @@
       <c r="I1143" t="n">
         <v>4.103</v>
       </c>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38896,7 +39708,9 @@
       <c r="I1144" t="n">
         <v>4.103</v>
       </c>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38930,12 +39744,12 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J1145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38969,12 +39783,12 @@
         <v>-33377502.59425032</v>
       </c>
       <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J1146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39008,12 +39822,12 @@
         <v>-33553590.81005032</v>
       </c>
       <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J1147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39047,12 +39861,12 @@
         <v>-33511857.90205032</v>
       </c>
       <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="J1148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39091,7 +39905,9 @@
       <c r="I1149" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39130,7 +39946,9 @@
       <c r="I1150" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39169,7 +39987,9 @@
       <c r="I1151" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39208,7 +40028,9 @@
       <c r="I1152" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39247,7 +40069,9 @@
       <c r="I1153" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39286,7 +40110,9 @@
       <c r="I1154" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39325,7 +40151,9 @@
       <c r="I1155" t="n">
         <v>4.104</v>
       </c>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39364,7 +40192,9 @@
       <c r="I1156" t="n">
         <v>4.105</v>
       </c>
-      <c r="J1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39403,7 +40233,9 @@
       <c r="I1157" t="n">
         <v>4.107</v>
       </c>
-      <c r="J1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39442,7 +40274,9 @@
       <c r="I1158" t="n">
         <v>4.108</v>
       </c>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39481,7 +40315,9 @@
       <c r="I1159" t="n">
         <v>4.107</v>
       </c>
-      <c r="J1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39520,7 +40356,9 @@
       <c r="I1160" t="n">
         <v>4.107</v>
       </c>
-      <c r="J1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39559,7 +40397,9 @@
       <c r="I1161" t="n">
         <v>4.106</v>
       </c>
-      <c r="J1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39598,7 +40438,9 @@
       <c r="I1162" t="n">
         <v>4.105</v>
       </c>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39637,7 +40479,9 @@
       <c r="I1163" t="n">
         <v>4.107</v>
       </c>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39676,7 +40520,9 @@
       <c r="I1164" t="n">
         <v>4.111</v>
       </c>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39715,7 +40561,9 @@
       <c r="I1165" t="n">
         <v>4.111</v>
       </c>
-      <c r="J1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39754,7 +40602,9 @@
       <c r="I1166" t="n">
         <v>4.112</v>
       </c>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39793,7 +40643,9 @@
       <c r="I1167" t="n">
         <v>4.113</v>
       </c>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39832,7 +40684,9 @@
       <c r="I1168" t="n">
         <v>4.112</v>
       </c>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39871,7 +40725,9 @@
       <c r="I1169" t="n">
         <v>4.113</v>
       </c>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39905,12 +40761,12 @@
         <v>-33600008.55175032</v>
       </c>
       <c r="H1170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1170" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="J1170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39949,7 +40805,9 @@
       <c r="I1171" t="n">
         <v>4.108</v>
       </c>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39983,12 +40841,12 @@
         <v>-33584977.64875032</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1172" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="J1172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40025,7 +40883,9 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40062,7 +40922,9 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40099,7 +40961,9 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40138,7 +41002,9 @@
       <c r="I1176" t="n">
         <v>4.11</v>
       </c>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40177,7 +41043,9 @@
       <c r="I1177" t="n">
         <v>4.11</v>
       </c>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40211,12 +41079,12 @@
         <v>-33601100.54075032</v>
       </c>
       <c r="H1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1178" t="n">
-        <v>4.111</v>
-      </c>
-      <c r="J1178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40250,12 +41118,12 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1179" t="n">
-        <v>4.111</v>
-      </c>
-      <c r="J1179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40289,12 +41157,12 @@
         <v>-33548712.56575032</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>4.112</v>
-      </c>
-      <c r="J1180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40328,12 +41196,12 @@
         <v>-33614617.62175032</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>4.112</v>
-      </c>
-      <c r="J1181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
+      <c r="J1181" t="n">
+        <v>4.089</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
